--- a/InvoiceMaker/Templates/FacturaTemplate.xlsx
+++ b/InvoiceMaker/Templates/FacturaTemplate.xlsx
@@ -5,21 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\source\repos\InvoiceMaker\InvoiceMaker\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\InvoiceMaker\InvoiceMaker\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230"/>
   </bookViews>
   <sheets>
-    <sheet name="9월5주차" sheetId="5" r:id="rId1"/>
-    <sheet name="식대계산서" sheetId="2" r:id="rId2"/>
+    <sheet name="Factura" sheetId="5" r:id="rId1"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'9월5주차'!$A$1:$J$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Factura!$A$1:$J$20</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>Apodaca Nuevo Leon  C.P:66600</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,50 +123,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fecha de la factura: 18/07/2025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>품목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C. RIO Colorado #114, ARA CRYSTAL LAGOONS APODACA, APODACA, NUEVO LEON C.P. 66600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> BOREUMDAL JEONGWON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TOTAL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오마카세 set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C.LAGUNA DE ZEMPOALA 307 #114,CRYSTAL LAGOONS, APODACA, NUEVO LEON C.P. 66604</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,54 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Mexico bank </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="돋움체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>SANTANDER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="돋움체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: CLABE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="돋움체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>014580220009813513</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="돋움체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(EUNHE KIM)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>환율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,11 +151,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수수료(2.5%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N0. de factura:2509012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수수료(3.5%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한은행 110 205 098000 김은희</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,18 +167,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="11">
-    <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+  <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-[$₩-412]* #,##0_-;\-[$₩-412]* #,##0_-;_-[$₩-412]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="&quot;US$&quot;\ \ #,###.00"/>
     <numFmt numFmtId="178" formatCode="[$-409]d&quot;-&quot;mmm&quot;-&quot;yy;@"/>
-    <numFmt numFmtId="179" formatCode="&quot;US$&quot;#,##0.00"/>
-    <numFmt numFmtId="182" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="183" formatCode="&quot;PESO&quot;\ \ #,###.00"/>
-    <numFmt numFmtId="184" formatCode="&quot;peso&quot;\ \ #,###.00"/>
-    <numFmt numFmtId="185" formatCode="&quot;peso&quot;\ #,##0.00"/>
-    <numFmt numFmtId="186" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="179" formatCode="&quot;PESO&quot;\ \ #,###.00"/>
+    <numFmt numFmtId="180" formatCode="&quot;peso&quot;\ \ #,###.00"/>
+    <numFmt numFmtId="181" formatCode="&quot;peso&quot;\ #,##0.00"/>
+    <numFmt numFmtId="182" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -404,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -519,24 +431,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -600,16 +494,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -634,9 +525,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -664,9 +552,6 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -685,91 +570,154 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -781,41 +729,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -826,118 +747,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="통화 [0]" xfId="2" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1044,54 +856,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>813260</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D54891FA-A7FD-42FA-967C-588189E99FCC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect b="3189"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5619749" y="800100"/>
-          <a:ext cx="1010111" cy="977900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1422,168 +1186,168 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="11.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.77734375" style="1"/>
+    <col min="12" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="80" t="s">
+      <c r="I1" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="80"/>
-    </row>
-    <row r="2" spans="1:10" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="J1" s="78"/>
+    </row>
+    <row r="2" spans="1:10" ht="20.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="81" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="81" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-    </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+    </row>
+    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-    </row>
-    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="23" t="s">
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+    </row>
+    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="57"/>
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-    </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
-      <c r="B6" s="57" t="s">
+      <c r="C5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+    </row>
+    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="57"/>
+      <c r="B6" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-    </row>
-    <row r="7" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+    </row>
+    <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="23" t="s">
+      <c r="C7" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="57"/>
+      <c r="B8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-    </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
-      <c r="B9" s="57" t="s">
+      <c r="C8" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="57"/>
+      <c r="B9" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="32">
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="26">
         <v>45931</v>
       </c>
     </row>
@@ -1594,19 +1358,19 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="83">
+      <c r="H10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="77">
         <v>18.66</v>
       </c>
-      <c r="J10" s="83"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+      <c r="J10" s="77"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="72"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
@@ -1625,179 +1389,179 @@
       <c r="H11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="50"/>
-    </row>
-    <row r="12" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="76">
+      <c r="J11" s="48"/>
+    </row>
+    <row r="12" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42">
         <v>45928</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="16">
+      <c r="B12" s="43"/>
+      <c r="C12" s="15">
         <v>45931</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="36">
         <v>152</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="13">
+      <c r="E12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="12">
         <v>115</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>1</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <f>C12-A12+1</f>
         <v>4</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="14">
         <f>F12*H12*G12</f>
         <v>460</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="27">
         <f>I12*$I$10</f>
         <v>8583.6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="76"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="33"/>
-    </row>
-    <row r="14" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="33"/>
-    </row>
-    <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="48" t="s">
+    <row r="13" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="15">
+      <c r="G17" s="47"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="14">
         <f>SUM(I12:I16)</f>
         <v>460</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="27">
         <f>SUM(J12:J16)</f>
         <v>8583.6</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="17"/>
+    <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="85"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="15">
+      <c r="F18" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="70"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="14">
         <f>I17*0.16</f>
         <v>73.600000000000009</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="14">
         <f>J17*0.16</f>
         <v>1373.376</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="17"/>
+    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="85"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="15">
-        <f>(I17+I18)*0.025</f>
-        <v>13.340000000000002</v>
-      </c>
-      <c r="J19" s="15">
-        <f>(J17+J18)*0.025</f>
-        <v>248.92440000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="93" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="94"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="37">
+      <c r="F19" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="70"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="14">
+        <f>(I17+I18)*0.035</f>
+        <v>18.676000000000002</v>
+      </c>
+      <c r="J19" s="14">
+        <f>(J17+J18)*0.035</f>
+        <v>348.49416000000008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="31">
         <f>I17+I18+I19</f>
-        <v>546.94000000000005</v>
-      </c>
-      <c r="J20" s="38">
+        <v>552.27600000000007</v>
+      </c>
+      <c r="J20" s="32">
         <f>J17+J18+J19</f>
-        <v>10205.9004</v>
-      </c>
-      <c r="K20" s="43">
+        <v>10305.470160000001</v>
+      </c>
+      <c r="K20" s="37">
         <f>J20+'[1]9월5주차'!$J$20</f>
-        <v>20411.800800000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20511.370560000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1807,161 +1571,161 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="36"/>
-    </row>
-    <row r="22" spans="1:11" ht="19.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="19" t="s">
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="87" t="s">
+      <c r="I23" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="87"/>
-    </row>
-    <row r="24" spans="1:11" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="J23" s="54"/>
+    </row>
+    <row r="24" spans="1:11" ht="20.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="81" t="s">
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="81" t="s">
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-    </row>
-    <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+    </row>
+    <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="91" t="s">
+      <c r="C26" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-    </row>
-    <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="68"/>
-      <c r="B27" s="23" t="s">
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+    </row>
+    <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="57"/>
+      <c r="B27" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="24" t="str">
+      <c r="C27" s="22" t="str">
         <f>C5</f>
         <v>C.LAGUNA DE ZEMPOALA 307 #114,CRYSTAL LAGOONS, APODACA, NUEVO LEON C.P. 66604</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-    </row>
-    <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="68"/>
-      <c r="B28" s="92" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+    </row>
+    <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="57"/>
+      <c r="B28" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-    </row>
-    <row r="29" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="68" t="s">
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+    </row>
+    <row r="29" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="72" t="str">
+      <c r="C29" s="41" t="str">
         <f>C7</f>
         <v>IMT</v>
       </c>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-    </row>
-    <row r="30" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="68"/>
-      <c r="B30" s="34" t="s">
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+    </row>
+    <row r="30" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="57"/>
+      <c r="B30" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="88" t="str">
+      <c r="C30" s="61" t="str">
         <f>C8</f>
         <v>이관우</v>
       </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="61" t="str">
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64" t="str">
         <f>G8</f>
         <v>N0. de factura:2509012</v>
       </c>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-    </row>
-    <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="68"/>
-      <c r="B31" s="57" t="s">
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+    </row>
+    <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="57"/>
+      <c r="B31" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="61" t="str">
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="64" t="str">
         <f>G9</f>
         <v>Fecha de la factura</v>
       </c>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="30">
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="24">
         <f>J9</f>
         <v>45931</v>
       </c>
@@ -1973,21 +1737,21 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="39" t="str">
+      <c r="H32" s="33" t="str">
         <f>H10</f>
         <v>환율</v>
       </c>
-      <c r="I32" s="78">
+      <c r="I32" s="52">
         <f>I10</f>
         <v>18.66</v>
       </c>
-      <c r="J32" s="79"/>
-    </row>
-    <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="72" t="s">
+      <c r="J32" s="53"/>
+    </row>
+    <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="72"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="4" t="s">
         <v>5</v>
       </c>
@@ -2006,181 +1770,181 @@
       <c r="H33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="72" t="s">
+      <c r="I33" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="72"/>
-    </row>
-    <row r="34" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="97">
+      <c r="J33" s="41"/>
+    </row>
+    <row r="34" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="44">
         <f>A12</f>
         <v>45928</v>
       </c>
-      <c r="B34" s="98"/>
-      <c r="C34" s="40">
-        <f t="shared" ref="C34:J35" si="0">C12</f>
+      <c r="B34" s="45"/>
+      <c r="C34" s="34">
+        <f t="shared" ref="C34:J34" si="0">C12</f>
         <v>45931</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="35">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="E34" s="12" t="str">
+      <c r="E34" s="11" t="str">
         <f t="shared" si="0"/>
         <v>이관우</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="12">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G34" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H34" s="20">
+      <c r="H34" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="12">
         <f t="shared" si="0"/>
         <v>460</v>
       </c>
-      <c r="J34" s="33">
+      <c r="J34" s="27">
         <f t="shared" si="0"/>
         <v>8583.6</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="97"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="33"/>
-    </row>
-    <row r="36" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="76"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="33"/>
-    </row>
-    <row r="37" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="76"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="33"/>
-    </row>
-    <row r="38" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="76"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="33"/>
-    </row>
-    <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="48" t="s">
+    <row r="35" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="44"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="27"/>
+    </row>
+    <row r="36" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="27"/>
+    </row>
+    <row r="37" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="42"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="27"/>
+    </row>
+    <row r="38" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="27"/>
+    </row>
+    <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G39" s="49"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="15">
+      <c r="G39" s="47"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="14">
         <f>SUM(I34:I38)</f>
         <v>460</v>
       </c>
-      <c r="J39" s="33">
+      <c r="J39" s="27">
         <f>SUM(J34:J38)</f>
         <v>8583.6</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="17"/>
+    <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="16"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="45" t="str">
+      <c r="F40" s="49" t="str">
         <f>F18</f>
         <v>IVA(16%)</v>
       </c>
-      <c r="G40" s="46"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="15">
+      <c r="G40" s="50"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="14">
         <f>I18</f>
         <v>73.600000000000009</v>
       </c>
-      <c r="J40" s="33">
+      <c r="J40" s="27">
         <f>J18</f>
         <v>1373.376</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="17"/>
+    <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="45" t="str">
+      <c r="F41" s="49" t="str">
         <f>F19</f>
-        <v>수수료(2.5%)</v>
-      </c>
-      <c r="G41" s="46"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="15">
+        <v>수수료(3.5%)</v>
+      </c>
+      <c r="G41" s="50"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="14">
         <f>I19</f>
-        <v>13.340000000000002</v>
-      </c>
-      <c r="J41" s="33">
+        <v>18.676000000000002</v>
+      </c>
+      <c r="J41" s="27">
         <f>J19</f>
-        <v>248.92440000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="62" t="str">
+        <v>348.49416000000008</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="72" t="str">
         <f>A20</f>
-        <v>Mexico bank SANTANDER: CLABE 014580220009813513(EUNHE KIM)</v>
-      </c>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="93" t="s">
+        <v>신한은행 110 205 098000 김은희</v>
+      </c>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G42" s="94"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="37">
+      <c r="G42" s="39"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="31">
         <f>I39+I40+I41</f>
-        <v>546.94000000000005</v>
-      </c>
-      <c r="J42" s="38">
+        <v>552.27600000000007</v>
+      </c>
+      <c r="J42" s="32">
         <f>J39+J40+J41</f>
-        <v>10205.9004</v>
+        <v>10305.470160000001</v>
       </c>
     </row>
   </sheetData>
@@ -2248,326 +2012,4 @@
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.44140625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-    </row>
-    <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="64"/>
-    </row>
-    <row r="5" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="66"/>
-    </row>
-    <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66"/>
-    </row>
-    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-    </row>
-    <row r="8" spans="1:8" ht="23.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="12">
-        <v>5</v>
-      </c>
-      <c r="E10" s="28">
-        <v>120</v>
-      </c>
-      <c r="F10" s="106">
-        <f>D10*E10</f>
-        <v>600</v>
-      </c>
-      <c r="G10" s="107"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="12">
-        <v>6</v>
-      </c>
-      <c r="E11" s="29">
-        <v>650</v>
-      </c>
-      <c r="F11" s="106">
-        <f>D11*E11</f>
-        <v>3900</v>
-      </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="76"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:9" ht="27.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="102">
-        <f>SUM(F10:G19)</f>
-        <v>4500</v>
-      </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:H6"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A9:C9"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.94488188976377963" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/InvoiceMaker/Templates/FacturaTemplate.xlsx
+++ b/InvoiceMaker/Templates/FacturaTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Factura" sheetId="5" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Factura!$A$1:$J$20</definedName>
   </definedNames>
@@ -34,13 +31,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>Apodaca Nuevo Leon  C.P:66600</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Subtotal</t>
   </si>
   <si>
     <t>TOTAL USD</t>
@@ -143,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IMT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이관우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,7 +149,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신한은행 110 205 098000 김은희</t>
+    <t>Subtotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subtotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>korea bank 신한은행 : 110-205-098000 (김은희)
+           TOSS BANK : 1000-0164-0814(김은희)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mexico bank </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="돋움체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>SANTANDER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="돋움체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: CLABE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="돋움체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>014580220009813513</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="돋움체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(EUNHE KIM)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,7 +214,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="8">
+  <numFmts count="10">
+    <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-[$₩-412]* #,##0_-;\-[$₩-412]* #,##0_-;_-[$₩-412]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="&quot;US$&quot;\ \ #,###.00"/>
@@ -176,8 +224,9 @@
     <numFmt numFmtId="180" formatCode="&quot;peso&quot;\ \ #,###.00"/>
     <numFmt numFmtId="181" formatCode="&quot;peso&quot;\ #,##0.00"/>
     <numFmt numFmtId="182" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="183" formatCode="&quot;krw&quot;\ #,###.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -284,8 +333,15 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="돋움체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,8 +371,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -482,17 +544,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -500,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -588,20 +639,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="177" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -615,7 +657,55 @@
     <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -648,104 +738,92 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="178" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -822,7 +900,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>654049</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1010111" cy="977900"/>
@@ -857,39 +935,6 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="7월"/>
-      <sheetName val="9월3주차"/>
-      <sheetName val="9월4주차"/>
-      <sheetName val="9월5주차"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="식대계산서"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="20">
-          <cell r="J20">
-            <v>10205.9004</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1182,11 +1227,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.25" x14ac:dyDescent="0.65"/>
   <cols>
     <col min="1" max="1" width="3.3984375" style="1" customWidth="1"/>
     <col min="2" max="3" width="11.69921875" style="1" customWidth="1"/>
@@ -1201,9 +1248,9 @@
     <col min="12" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1212,201 +1259,197 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="78"/>
-    </row>
-    <row r="2" spans="1:10" ht="20.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="I1" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="80"/>
+    </row>
+    <row r="2" spans="1:10" ht="20.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A2" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="G2" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A4" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-    </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-    </row>
-    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+    </row>
+    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A5" s="75"/>
       <c r="B5" s="21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="23"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-    </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57"/>
-      <c r="B6" s="65" t="s">
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+    </row>
+    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A6" s="75"/>
+      <c r="B6" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+    </row>
+    <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A7" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-    </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
-        <v>17</v>
-      </c>
       <c r="B7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A8" s="75"/>
+      <c r="B8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
-      <c r="B8" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-    </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="57"/>
-      <c r="B9" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A9" s="75"/>
+      <c r="B9" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
       <c r="J9" s="26">
         <v>45931</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="77">
+      <c r="G10" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="90"/>
+      <c r="I10" s="38">
         <v>18.66</v>
       </c>
-      <c r="J10" s="77"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="J10" s="40"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A11" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="48"/>
-    </row>
-    <row r="12" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42">
+      <c r="J11" s="61"/>
+    </row>
+    <row r="12" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A12" s="55">
         <v>45928</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="15">
         <v>45931</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="33">
         <v>152</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="12">
         <v>115</v>
@@ -1427,11 +1470,11 @@
         <v>8583.6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
+    <row r="13" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A13" s="55"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="36"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="10"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
@@ -1439,11 +1482,11 @@
       <c r="I13" s="14"/>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43"/>
+    <row r="14" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A14" s="55"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="36"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="10"/>
       <c r="F14" s="12"/>
       <c r="G14" s="13"/>
@@ -1451,9 +1494,9 @@
       <c r="I14" s="14"/>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
+    <row r="15" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="15"/>
       <c r="D15" s="11"/>
       <c r="E15" s="10"/>
@@ -1463,9 +1506,9 @@
       <c r="I15" s="14"/>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
+    <row r="16" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="15"/>
       <c r="D16" s="11"/>
       <c r="E16" s="10"/>
@@ -1475,17 +1518,17 @@
       <c r="I16" s="14"/>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
-      <c r="F17" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="48"/>
+      <c r="F17" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="60"/>
+      <c r="H17" s="61"/>
       <c r="I17" s="14">
         <f>SUM(I12:I16)</f>
         <v>460</v>
@@ -1495,342 +1538,348 @@
         <v>8583.6</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="16"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="70"/>
-      <c r="H18" s="71"/>
+      <c r="F18" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="82"/>
+      <c r="H18" s="83"/>
       <c r="I18" s="14">
         <f>I17*0.16</f>
         <v>73.600000000000009</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="35">
         <f>J17*0.16</f>
         <v>1373.376</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="16"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="70"/>
-      <c r="H19" s="71"/>
+      <c r="F19" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="82"/>
+      <c r="H19" s="83"/>
       <c r="I19" s="14">
         <f>(I17+I18)*0.035</f>
         <v>18.676000000000002</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="35">
         <f>(J17+J18)*0.035</f>
         <v>348.49416000000008</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="31">
+    <row r="20" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A20" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="29">
         <f>I17+I18+I19</f>
         <v>552.27600000000007</v>
       </c>
-      <c r="J20" s="32">
+      <c r="J20" s="30">
         <f>J17+J18+J19</f>
         <v>10305.470160000001</v>
       </c>
-      <c r="K20" s="37">
-        <f>J20+'[1]9월5주차'!$J$20</f>
-        <v>20511.370560000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="30"/>
-    </row>
-    <row r="22" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="54"/>
-    </row>
-    <row r="24" spans="1:11" ht="20.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="55" t="s">
+      <c r="K20" s="34"/>
+    </row>
+    <row r="21" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A21" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="47">
+        <f>I20*J10</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="65"/>
+      <c r="K21" s="34"/>
+    </row>
+    <row r="22" spans="1:11" ht="13" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="24" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="62"/>
+    </row>
+    <row r="25" spans="1:11" ht="20.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A25" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="56" t="s">
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A26" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="56" t="s">
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+    </row>
+    <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A27" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-    </row>
-    <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-    </row>
-    <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="57"/>
-      <c r="B27" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="22" t="str">
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+    </row>
+    <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A28" s="75"/>
+      <c r="B28" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="22" t="str">
         <f>C5</f>
         <v>C.LAGUNA DE ZEMPOALA 307 #114,CRYSTAL LAGOONS, APODACA, NUEVO LEON C.P. 66604</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-    </row>
-    <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="57"/>
-      <c r="B28" s="60" t="s">
+      <c r="D28" s="21"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+    </row>
+    <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A29" s="75"/>
+      <c r="B29" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+    </row>
+    <row r="30" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A30" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-    </row>
-    <row r="29" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="41" t="str">
+      <c r="B30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="54">
         <f>C7</f>
-        <v>IMT</v>
-      </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-    </row>
-    <row r="30" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="57"/>
-      <c r="B30" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="61" t="str">
+        <v>0</v>
+      </c>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+    </row>
+    <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A31" s="75"/>
+      <c r="B31" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="87">
         <f>C8</f>
-        <v>이관우</v>
-      </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="71" t="str">
         <f>G8</f>
         <v>N0. de factura:2509012</v>
       </c>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-    </row>
-    <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="57"/>
-      <c r="B31" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="64" t="str">
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+    </row>
+    <row r="32" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A32" s="75"/>
+      <c r="B32" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="45" t="str">
         <f>G9</f>
         <v>Fecha de la factura</v>
       </c>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="24">
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="24">
         <f>J9</f>
         <v>45931</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="33" t="str">
-        <f>H10</f>
+    <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="66" t="str">
+        <f>G10</f>
         <v>환율</v>
       </c>
-      <c r="I32" s="52">
+      <c r="H33" s="66"/>
+      <c r="I33" s="39">
         <f>I10</f>
         <v>18.66</v>
       </c>
-      <c r="J32" s="53"/>
-    </row>
-    <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41" t="s">
+      <c r="J33" s="41">
+        <f>J10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A34" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="I34" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" s="41"/>
-    </row>
-    <row r="34" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44">
+      <c r="J34" s="54"/>
+    </row>
+    <row r="35" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A35" s="57">
         <f>A12</f>
         <v>45928</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="34">
-        <f t="shared" ref="C34:J34" si="0">C12</f>
+      <c r="B35" s="58"/>
+      <c r="C35" s="31">
+        <f t="shared" ref="C35:J35" si="0">C12</f>
         <v>45931</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D35" s="32">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="E34" s="11" t="str">
+      <c r="E35" s="11" t="str">
         <f t="shared" si="0"/>
         <v>이관우</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F35" s="12">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G35" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H35" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I35" s="12">
         <f t="shared" si="0"/>
         <v>460</v>
       </c>
-      <c r="J34" s="27">
+      <c r="J35" s="27">
         <f t="shared" si="0"/>
         <v>8583.6</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="44"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="27"/>
-    </row>
-    <row r="36" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="11"/>
+    <row r="36" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A36" s="57"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="11"/>
       <c r="F36" s="12"/>
       <c r="G36" s="18"/>
@@ -1838,9 +1887,9 @@
       <c r="I36" s="12"/>
       <c r="J36" s="27"/>
     </row>
-    <row r="37" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43"/>
+    <row r="37" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A37" s="55"/>
+      <c r="B37" s="56"/>
       <c r="C37" s="15"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -1850,9 +1899,9 @@
       <c r="I37" s="12"/>
       <c r="J37" s="27"/>
     </row>
-    <row r="38" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="B38" s="43"/>
+    <row r="38" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A38" s="55"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="15"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -1862,110 +1911,153 @@
       <c r="I38" s="12"/>
       <c r="J38" s="27"/>
     </row>
-    <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="14">
-        <f>SUM(I34:I38)</f>
-        <v>460</v>
-      </c>
-      <c r="J39" s="27">
-        <f>SUM(J34:J38)</f>
-        <v>8583.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A39" s="55"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="27"/>
+    </row>
+    <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="49" t="str">
-        <f>F18</f>
-        <v>IVA(16%)</v>
-      </c>
-      <c r="G40" s="50"/>
-      <c r="H40" s="51"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="60"/>
+      <c r="H40" s="61"/>
       <c r="I40" s="14">
-        <f>I18</f>
-        <v>73.600000000000009</v>
+        <f>SUM(I35:I39)</f>
+        <v>460</v>
       </c>
       <c r="J40" s="27">
-        <f>J18</f>
-        <v>1373.376</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f>SUM(J35:J39)</f>
+        <v>8583.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
       <c r="D41" s="16"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="49" t="str">
+      <c r="F41" s="42" t="str">
+        <f>F18</f>
+        <v>IVA(16%)</v>
+      </c>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="14">
+        <f>I18</f>
+        <v>73.600000000000009</v>
+      </c>
+      <c r="J41" s="27">
+        <f>J18</f>
+        <v>1373.376</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="42" t="str">
         <f>F19</f>
         <v>수수료(3.5%)</v>
       </c>
-      <c r="G41" s="50"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="14">
+      <c r="G42" s="43"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="14">
         <f>I19</f>
         <v>18.676000000000002</v>
       </c>
-      <c r="J41" s="27">
+      <c r="J42" s="27">
         <f>J19</f>
         <v>348.49416000000008</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="72" t="str">
-        <f>A20</f>
-        <v>신한은행 110 205 098000 김은희</v>
-      </c>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G42" s="39"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="31">
-        <f>I39+I40+I41</f>
+    <row r="43" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A43" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="52"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="29">
+        <f>I40+I41+I42</f>
         <v>552.27600000000007</v>
       </c>
-      <c r="J42" s="32">
-        <f>J39+J40+J41</f>
+      <c r="J43" s="30">
+        <f>J40+J41+J42</f>
         <v>10305.470160000001</v>
       </c>
     </row>
+    <row r="44" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A44" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="47">
+        <f>I21</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="46"/>
+    </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="61">
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:J30"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:J3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="H4:J7"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="I10:J10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="A12:B12"/>
@@ -1973,38 +2065,28 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="G25:J25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:J29"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="F42:H42"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="G33:H33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
